--- a/Otros documentos/Documentación/Planilla_Requerimientos_CatchAI.xlsx
+++ b/Otros documentos/Documentación/Planilla_Requerimientos_CatchAI.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okaed\OneDrive\Desktop\repos\CatchAI\Otros documentos\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B69C22-B8CE-4416-8F66-B34AA951C543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BFF1B0-D75F-4111-AAA1-EB4B288D84E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -148,9 +153,6 @@
     <t>Transcribir audio con Whisper u otro STT.</t>
   </si>
   <si>
-    <t>Consultar diccionario de señas chilenas.</t>
-  </si>
-  <si>
     <t>Reproducir animación en Blender/Godot.</t>
   </si>
   <si>
@@ -163,9 +165,6 @@
     <t>Procesar archivos de ≤1 min en ≤10s.</t>
   </si>
   <si>
-    <t>Latencia ≤10s entre audio y seña.</t>
-  </si>
-  <si>
     <t>Procesar 10 solicitudes consecutivas sin caída.</t>
   </si>
   <si>
@@ -320,6 +319,12 @@
   </si>
   <si>
     <t>No funcional</t>
+  </si>
+  <si>
+    <t>Consultar diccionario de animaciones</t>
+  </si>
+  <si>
+    <t>Latencia ≤10s entre audio y animación.</t>
   </si>
 </sst>
 </file>
@@ -445,7 +450,30 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -476,29 +504,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -513,16 +518,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1B26937-D236-4330-8B55-A149152D5F3E}" name="Tabla1" displayName="Tabla1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1B26937-D236-4330-8B55-A149152D5F3E}" name="Tabla1" displayName="Tabla1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A1:G17" xr:uid="{C1B26937-D236-4330-8B55-A149152D5F3E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{ABB7CD59-C1A2-48B2-8C21-287028C80B70}" name="ID" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{76342C32-D8C1-4270-B94A-41ACBB584F85}" name="Tipo" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{8084B2B5-5CAC-4DE1-9A9A-6A33EDAC6D5B}" name="Nombre" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{A2A2C5AD-3607-4121-8FE2-AC95622F4574}" name="Descripción" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C4EB2430-87D5-4441-A649-45B30465AF16}" name="Entrada esperada" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{598E0B56-F572-4E2F-845D-83E0AFCFD41A}" name="Salida" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{EE744ED0-C24E-4B27-95D7-C7140D7A93C0}" name="Criterio de aceptación" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{ABB7CD59-C1A2-48B2-8C21-287028C80B70}" name="ID" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{76342C32-D8C1-4270-B94A-41ACBB584F85}" name="Tipo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8084B2B5-5CAC-4DE1-9A9A-6A33EDAC6D5B}" name="Nombre" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A2A2C5AD-3607-4121-8FE2-AC95622F4574}" name="Descripción" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C4EB2430-87D5-4441-A649-45B30465AF16}" name="Entrada esperada" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{598E0B56-F572-4E2F-845D-83E0AFCFD41A}" name="Salida" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{EE744ED0-C24E-4B27-95D7-C7140D7A93C0}" name="Criterio de aceptación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -817,26 +822,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.4609375" customWidth="1"/>
+    <col min="3" max="3" width="23.3046875" customWidth="1"/>
+    <col min="4" max="4" width="56.4609375" customWidth="1"/>
+    <col min="5" max="5" width="28.3046875" customWidth="1"/>
+    <col min="6" max="6" width="30.84375" customWidth="1"/>
+    <col min="7" max="7" width="31.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -854,12 +859,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>22</v>
@@ -868,21 +873,21 @@
         <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>23</v>
@@ -891,21 +896,21 @@
         <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>24</v>
@@ -914,21 +919,21 @@
         <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -937,289 +942,289 @@
         <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
